--- a/biology/Botanique/Liste_de_plantes_appelées_herbes/Liste_de_plantes_appelées_herbes.xlsx
+++ b/biology/Botanique/Liste_de_plantes_appelées_herbes/Liste_de_plantes_appelées_herbes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_appel%C3%A9es_herbes</t>
+          <t>Liste_de_plantes_appelées_herbes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Herbe, Cannabis
 Herbe à becquet, Geranium sanguineum L., Geraniaceae
@@ -495,7 +507,7 @@
 Herbe à couteau, Lolium temulentum L., Poaceae
 Herbe à crapauds, Juncus bufonius L.
 Herbe à deux bouts, Elytrigia repens subPoaAsteraceae
-Herbe à épée, Paspalum scrobiculatum L., Poaceae[1]
+Herbe à épée, Paspalum scrobiculatum L., Poaceae
 Herbe à éternuer, Achillea ptarmica L., Asteraceae
 Herbe à feuilles de Polium, Hélianthème des Apennins, Helianthemum apenninum (L.) Mill.
 Herbe à foulon, Saponaire, Saponaria officinalis L.
@@ -694,7 +706,7 @@
 Herbe bleue, Jasione montana L.
 Herbe capillaire, Asplenium adiantum-nigrum L.
 Herbe collante, Galium aparine L.
-Herbe créole, Paspalum conjugatum Bergius (Poaceae)[2]
+Herbe créole, Paspalum conjugatum Bergius (Poaceae)
 Herbe d'amour, Phyteuma orbiculare L.
 Herbe d'Antal, Cynoglossum germanicum Jacq.
 Herbe de Biscaye, Convolvulus cantabrica L.
@@ -702,7 +714,7 @@
 Herbe de Capucin, Nigella damascena L.
 Herbe de cœur, Pulmonaria obscura Dumort.
 Herbe de Cuba, Sorghum halepense (L.) Pers., Poaceae
-Herbe de Dallis, Paspalum dilatatum Poir., Poaceae[3]
+Herbe de Dallis, Paspalum dilatatum Poir., Poaceae
 Herbe de feu :
 Armoise, Artemisia vulgaris L., Asteraceae
 Bryone dyoïque Bryonia dioica Jacq.
